--- a/Project Outputs for Cross_Board/ГИДР.123456.003-01.01/Документация/ГИДР.123456.005-01.01 ПЭ3.xlsx
+++ b/Project Outputs for Cross_Board/ГИДР.123456.003-01.01/Документация/ГИДР.123456.005-01.01 ПЭ3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tosh\AppData\Local\TempReleases\Snapshot\1\Assembly 01\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F918C83D-BE27-42E7-B81C-BA88A08412BA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{935D18A4-4BD3-47B4-81C3-72DEF692BEB4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" xr2:uid="{9D8247CD-1DD9-4192-A346-BA1772F30840}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" xr2:uid="{3EAA2E02-15DE-4771-9D69-7A454D87CF00}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.005-01.01 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D29015B-8EFC-442F-B825-B3252BB681B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0499C5B-FADE-403C-BD1F-3CED9D4CF090}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for Cross_Board/ГИДР.123456.003-01.01/Документация/ГИДР.123456.005-01.01 ПЭ3.xlsx
+++ b/Project Outputs for Cross_Board/ГИДР.123456.003-01.01/Документация/ГИДР.123456.005-01.01 ПЭ3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tosh\AppData\Local\TempReleases\Snapshot\1\Assembly 01\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{935D18A4-4BD3-47B4-81C3-72DEF692BEB4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B17E562-5C87-45D1-B825-8E3E494784D0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" xr2:uid="{3EAA2E02-15DE-4771-9D69-7A454D87CF00}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" xr2:uid="{1E0A6C92-EC22-42E7-98CA-F57C3BCAAB51}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.005-01.01 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0499C5B-FADE-403C-BD1F-3CED9D4CF090}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140CD2BC-7EB0-4A46-85E9-AD4D496EA875}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for Cross_Board/ГИДР.123456.003-01.01/Документация/ГИДР.123456.005-01.01 ПЭ3.xlsx
+++ b/Project Outputs for Cross_Board/ГИДР.123456.003-01.01/Документация/ГИДР.123456.005-01.01 ПЭ3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tosh\AppData\Local\TempReleases\Snapshot\1\Assembly 01\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B17E562-5C87-45D1-B825-8E3E494784D0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B24301C-DEE9-474E-9F1F-3B66F4FE71CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" xr2:uid="{1E0A6C92-EC22-42E7-98CA-F57C3BCAAB51}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" xr2:uid="{6F0DD866-DE05-4F7D-933E-7E534FCE6671}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.005-01.01 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140CD2BC-7EB0-4A46-85E9-AD4D496EA875}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B7ACBD-CD8F-441E-8153-25FAEE68A206}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for Cross_Board/ГИДР.123456.003-01.01/Документация/ГИДР.123456.005-01.01 ПЭ3.xlsx
+++ b/Project Outputs for Cross_Board/ГИДР.123456.003-01.01/Документация/ГИДР.123456.005-01.01 ПЭ3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tosh\AppData\Local\TempReleases\Snapshot\1\Assembly 01\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B24301C-DEE9-474E-9F1F-3B66F4FE71CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A5DF14A-B95F-4A46-A5ED-5BAE54774582}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" xr2:uid="{6F0DD866-DE05-4F7D-933E-7E534FCE6671}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" xr2:uid="{E978EF9C-7A6B-4AF1-B389-4347C4D8C5C7}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.005-01.01 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B7ACBD-CD8F-441E-8153-25FAEE68A206}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1CA4DE-5A34-45D6-B209-4E319336DA3E}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
